--- a/normalizacao_exercicio.xlsx
+++ b/normalizacao_exercicio.xlsx
@@ -23,86 +23,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">employees</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+  <si>
+    <t xml:space="preserve">Funcionários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Do Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDEREÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Tal, 321 / Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5312345678 / 5398765432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Sena Madureira,1234 / Vila Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234 / 2345 / 1552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogério Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Rio Grande , 821 / Vila Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 991851518 / 15 996409556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenções para uma tabela de banco de dados:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Todas as tabelas devem ter um nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Todas tabelas devem ter uma coluna índice id (valor único para cada linha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Toda tabela deve ter uma coluna que é a chave primária – Pk (única por linha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Normalmente a chave primaria é a coluna id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Table names and field names in english and lowercase – ver Cap4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Não há ordem de registros ou campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1- Não pode haver mais de uma informação por linha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentals</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Machado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Tal, 321 / Porto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5312345678 / 5398765432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avenida Sena Madureira,1234 / Vila Mariana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogério Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Rio Grande , 821 / Vila Mariana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 991851518 / 15 996409556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenções para uma tabela de banco de dados:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Todas as tabelas tem um nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Todas tabelas devem ter uma coluna índice id (valor único para cada linha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Toda tabela deve ter uma coluna que é a chave primária – Pk (única por linha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Normalmente a chave primaria é a coluna id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Table names and field names in english and lowercase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Não há ordem de registros ou campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome Do Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDEREÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN1- Não pode haver mais de uma informação por linha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentals</t>
-  </si>
-  <si>
     <t xml:space="preserve">car_id</t>
   </si>
   <si>
@@ -157,10 +154,7 @@
     <t xml:space="preserve">1- Deve respeitar a NF1</t>
   </si>
   <si>
-    <t xml:space="preserve">2- Os campos dos registros de uma tabela, ou são chave ou dependem da </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chave primaria em sua totalidade - previnir redundância</t>
+    <t xml:space="preserve">2- Não devem existir campos que dependam de outras chaves que não a primária</t>
   </si>
   <si>
     <t xml:space="preserve">(1 tabela por "assunto")</t>
@@ -244,6 +238,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -253,6 +254,41 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -272,41 +308,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -321,15 +322,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
+      <left style="hair"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -374,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,83 +377,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,10 +466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,50 +486,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>1003</v>
-      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -567,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
@@ -592,9 +564,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -616,71 +594,89 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -716,7 +712,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,43 +729,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="3" t="n">
         <v>1010</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>44105</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -778,104 +774,100 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="3" t="n">
         <v>1011</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>549</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="3" t="n">
         <v>1012</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>362</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="5" t="n">
         <v>1013</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>743</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>743</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -907,10 +899,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -927,40 +919,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1010</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>44105</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -969,104 +961,107 @@
       <c r="E3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="F3" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="16" t="n">
         <f aca="false">E3*F3</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>1011</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>302</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>35</v>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>549</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="16" t="n">
         <f aca="false">E4*F4</f>
         <v>2880</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>1012</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="16" t="n">
         <f aca="false">E5*F5</f>
         <v>640</v>
       </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="5" t="n">
         <v>1013</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="n">
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>743</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="19" t="n">
         <f aca="false">E6*F6</f>
         <v>960</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
